--- a/docs/DogBoneSDRAM.xlsx
+++ b/docs/DogBoneSDRAM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="201">
   <si>
     <t>B0_01</t>
   </si>
@@ -583,6 +583,122 @@
   </si>
   <si>
     <t>A1:15, A2:15</t>
+  </si>
+  <si>
+    <t>MUX</t>
+  </si>
+  <si>
+    <t>000 ALT0 — Select mux mode: ALT0 mux port: LCD_DATA23 of instance: lcdif
+001 ALT1 — Select mux mode: ALT1 mux port: QTIMER4_TIMER3 of instance: qtimer4
+010 ALT2 — Select mux mode: ALT2 mux port: CSI_DATA01 of instance: csi
+011 ALT3 — Select mux mode: ALT3 mux port: ENET_RX_ER of instance: enet
+100 ALT4 — Select mux mode: ALT4 mux port: FLEXIO2_FLEXIO27 of instance: flexio2
+101 ALT5 — Select mux mode: ALT5 mux port: GPIO2_IO27 of instance: gpio2
+110 ALT6 — Select mux mode: ALT6 mux port: LPSPI4_PCS3 of instance: lpspi4
+1001 ALT9 — Select mux mode: ALT9 mux port: FLEXIO3_FLEXIO27 of instance: flexio3</t>
+  </si>
+  <si>
+    <t>000 ALT0 — Select mux mode: ALT0 mux port: LCD_DATA22 of instance: lcdif
+001 ALT1 — Select mux mode: ALT1 mux port: QTIMER3_TIMER3 of instance: qtimer3
+010 ALT2 — Select mux mode: ALT2 mux port: CSI_DATA00 of instance: csi
+011 ALT3 — Select mux mode: ALT3 mux port: ENET_TX_CLK of instance: enet
+100 ALT4 — Select mux mode: ALT4 mux port: FLEXIO2_FLEXIO26 of instance: flexio2
+101 ALT5 — Select mux mode: ALT5 mux port: GPIO2_IO26 of instance: gpio2
+110 ALT6 — Select mux mode: ALT6 mux port: ENET_REF_CLK of instance: enet
+1001 ALT9 — Select mux mode: ALT9 mux port: FLEXIO3_FLEXIO26 of instance: flexio3</t>
+  </si>
+  <si>
+    <t>000 ALT0 — Select mux mode: ALT0 mux port: LCD_DATA21 of instance: lcdif 
+001 ALT1 — Select mux mode: ALT1 mux port: QTIMER2_TIMER3 of instance: qtimer2 
+010 ALT2 — Select mux mode: ALT2 mux port: CSI_DATA10 of instance: csi 
+011 ALT3 — Select mux mode: ALT3 mux port: ENET_TX_EN of instance: enet 
+100 ALT4 — Select mux mode: ALT4 mux port: FLEXIO2_FLEXIO25 of instance: flexio2 
+101 ALT5 — Select mux mode: ALT5 mux port: GPIO2_IO25 of instance: gpio2 
+110 ALT6 — Select mux mode: ALT6 mux port: FLEXCAN2_RX of instance: flexcan2 
+1000 ALT8 — Select mux mode: ALT8 mux port: GPT1_COMPARE3 of instance: gpt1 
+1001 ALT9 — Select mux mode: ALT9 mux port: FLEXIO3_FLEXIO25 of instance: flexio3</t>
+  </si>
+  <si>
+    <t>00 ALT0 — Select mux mode: ALT0 mux port: LCD_DATA20 of instance: lcdif
+ 001 ALT1 — Select mux mode: ALT1 mux port: QTIMER1_TIMER3 of instance: qtimer1 
+010 ALT2 — Select mux mode: ALT2 mux port: CSI_DATA11 of instance: csi
+ 011 ALT3 — Select mux mode: ALT3 mux port: ENET_TX_DATA01 of instance: enet 
+100 ALT4 — Select mux mode: ALT4 mux port: FLEXIO2_FLEXIO24 of instance: flexio2 
+101 ALT5 — Select mux mode: ALT5 mux port: GPIO2_IO24 of instance: gpio2 
+110 ALT6 — Select mux mode: ALT6 mux port: FLEXCAN2_TX of instance: flexcan2 
+1000 ALT8 — Select mux mode: ALT8 mux port: GPT1_COMPARE2 of instance: gpt1 
+1001 ALT9 — Select mux mode: ALT9 mux port: FLEXIO3_FLEXIO24 of instance: flexio3</t>
+  </si>
+  <si>
+    <t>000 ALT0 — Select mux mode: ALT0 mux port: LCD_DATA19 of instance: lcdif
+001 ALT1 — Select mux mode: ALT1 mux port: LPSPI4_SCK of instance: lpspi4
+010 ALT2 — Select mux mode: ALT2 mux port: CSI_DATA12 of instance: csi
+011 ALT3 — Select mux mode: ALT3 mux port: ENET_TX_DATA00 of instance: enet
+100 ALT4 — Select mux mode: ALT4 mux port: FLEXIO2_FLEXIO23 of instance: flexio2
+101 ALT5 — Select mux mode: ALT5 mux port: GPIO2_IO23 of instance: gpio2
+1000 ALT8 — Select mux mode: ALT8 mux port: GPT1_COMPARE1 of instance: gpt1
+1001 ALT9 — Select mux mode: ALT9 mux port: FLEXIO3_FLEXIO23 of instance: flexio3</t>
+  </si>
+  <si>
+    <t>000 ALT0 — Select mux mode: ALT0 mux port: LCD_DATA18 of instance: lcdif
+001 ALT1 — Select mux mode: ALT1 mux port: LPSPI4_SDO of instance: lpspi4
+010 ALT2 — Select mux mode: ALT2 mux port: CSI_DATA13 of instance: csi
+011 ALT3 — Select mux mode: ALT3 mux port: ENET_RX_EN of instance: enet
+100 ALT4 — Select mux mode: ALT4 mux port: FLEXIO2_FLEXIO22 of instance: flexio2
+101 ALT5 — Select mux mode: ALT5 mux port: GPIO2_IO22 of instance: gpio2
+1000 ALT8 — Select mux mode: ALT8 mux port: GPT1_CAPTURE2 of instance: gpt1
+1001 ALT9 — Select mux mode: ALT9 mux port: FLEXIO3_FLEXIO22 of instance: flexio3</t>
+  </si>
+  <si>
+    <t>000 ALT0 — Select mux mode: ALT0 mux port: LCD_DATA17 of instance: lcdif
+001 ALT1 — Select mux mode: ALT1 mux port: LPSPI4_SDI of instance: lpspi4
+010 ALT2 — Select mux mode: ALT2 mux port: CSI_DATA14 of instance: csi
+011 ALT3 — Select mux mode: ALT3 mux port: ENET_RX_DATA01 of instance: enet
+100 ALT4 — Select mux mode: ALT4 mux port: FLEXIO2_FLEXIO21 of instance: flexio2
+101 ALT5 — Select mux mode: ALT5 mux port: GPIO2_IO21 of instance: gpio2
+1000 ALT8 — Select mux mode: ALT8 mux port: GPT1_CAPTURE1 of instance: gpt1
+1001 ALT9 — Select mux mode: ALT9 mux port: FLEXIO3_FLEXIO21 of instance: flexio3</t>
+  </si>
+  <si>
+    <t>000 ALT0 — Select mux mode: ALT0 mux port: LCD_DATA16 of instance: lcdif
+001 ALT1 — Select mux mode: ALT1 mux port: LPSPI4_PCS0 of instance: lpspi4
+010 ALT2 — Select mux mode: ALT2 mux port: CSI_DATA15 of instance: csi
+011 ALT3 — Select mux mode: ALT3 mux port: ENET_RX_DATA00 of instance: enet
+100 ALT4 — Select mux mode: ALT4 mux port: FLEXIO2_FLEXIO20 of instance: flexio2
+101 ALT5 — Select mux mode: ALT5 mux port: GPIO2_IO20 of instance: gpio2
+1000 ALT8 — Select mux mode: ALT8 mux port: GPT1_CLK of instance: gpt1
+1001 ALT9 — Select mux mode: ALT9 mux port: FLEXIO3_FLEXIO20 of instance: flexio3</t>
+  </si>
+  <si>
+    <t>000 ALT0 — Select mux mode: ALT0 mux port: LCD_DATA11 of instance: lcdif
+001 ALT1 — Select mux mode: ALT1 mux port: XBAR1_INOUT13 of instance: xbar1
+010 ALT2 — Select mux mode: ALT2 mux port: ARM_RXEV of instance: cm7_mx6rt
+011 ALT3 — Select mux mode: ALT3 mux port: SAI1_RX_BCLK of instance: sai1
+100 ALT4 — Select mux mode: ALT4 mux port: FLEXIO2_FLEXIO15 of instance: flexio2
+101 ALT5 — Select mux mode: ALT5 mux port: GPIO2_IO15 of instance: gpio2
+110 ALT6 — Select mux mode: ALT6 mux port: SRC_BOOT_CFG11 of instance: src
+1000 ALT8 — Select mux mode: ALT8 mux port: ENET2_TX_CLK of instance: enet2
+1001 ALT9 — Select mux mode: ALT9 mux port: ENET2_REF_CLK2 of instance: enet2</t>
+  </si>
+  <si>
+    <t>000 ALT0 — Select mux mode: ALT0 mux port: LCD_DATA10 of instance: lcdif
+001 ALT1 — Select mux mode: ALT1 mux port: XBAR1_INOUT12 of instance: xbar1
+010 ALT2 — Select mux mode: ALT2 mux port: ARM_TXEV of instance: cm7_mx6rt
+011 ALT3 — Select mux mode: ALT3 mux port: SAI1_RX_SYNC of instance: sai1
+100 ALT4 — Select mux mode: ALT4 mux port: FLEXIO2_FLEXIO14 of instance: flexio2
+101 ALT5 — Select mux mode: ALT5 mux port: GPIO2_IO14 of instance: gpio2
+110 ALT6 — Select mux mode: ALT6 mux port: SRC_BOOT_CFG10 of instance: src
+1000 ALT8 — Select mux mode: ALT8 mux port: ENET2_TX_EN of instance: enet2</t>
+  </si>
+  <si>
+    <t>000 ALT0 — Select mux mode: ALT0 mux port: LCD_DATA09 of instance: lcdif
+001 ALT1 — Select mux mode: ALT1 mux port: XBAR1_INOUT11 of instance: xbar1
+010 ALT2 — Select mux mode: ALT2 mux port: ARM_TRACE_SWO of instance: cm7_mx6rt
+011 ALT3 — Select mux mode: ALT3 mux port: SAI1_MCLK of instance: sai1
+100 ALT4 — Select mux mode: ALT4 mux port: FLEXIO2_FLEXIO13 of instance: flexio2
+101 ALT5 — Select mux mode: ALT5 mux port: GPIO2_IO13 of instance: gpio2
+110 ALT6 — Select mux mode: ALT6 mux port: SRC_BOOT_CFG09 of instance: src
+1000 ALT8 — Select mux mode: ALT8 mux port: ENET2_TDATA01 of instance: enet2</t>
   </si>
 </sst>
 </file>
@@ -739,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -820,11 +936,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -966,26 +1117,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N45" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O45" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:O45"/>
   <sortState ref="A2:N45">
     <sortCondition ref="B1:B45"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Pin" dataDxfId="13"/>
-    <tableColumn id="2" name="Name" dataDxfId="12"/>
-    <tableColumn id="3" name="GPIO" dataDxfId="11"/>
-    <tableColumn id="4" name="Serial" dataDxfId="10"/>
-    <tableColumn id="5" name="I2C" dataDxfId="9"/>
-    <tableColumn id="6" name="SPI" dataDxfId="8"/>
-    <tableColumn id="7" name="PWM" dataDxfId="7"/>
-    <tableColumn id="8" name="CAN" dataDxfId="6"/>
-    <tableColumn id="9" name="Audio" dataDxfId="5"/>
-    <tableColumn id="10" name="XBAR" dataDxfId="4"/>
-    <tableColumn id="11" name="FlexIO" dataDxfId="3"/>
-    <tableColumn id="12" name="Analog" dataDxfId="2"/>
-    <tableColumn id="13" name="SD/CSI/LCD" dataDxfId="1"/>
-    <tableColumn id="14" name="Column1" dataDxfId="0"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Pin" dataDxfId="14"/>
+    <tableColumn id="2" name="Name" dataDxfId="13"/>
+    <tableColumn id="15" name="MUX" dataDxfId="0"/>
+    <tableColumn id="3" name="GPIO" dataDxfId="12"/>
+    <tableColumn id="4" name="Serial" dataDxfId="11"/>
+    <tableColumn id="5" name="I2C" dataDxfId="10"/>
+    <tableColumn id="6" name="SPI" dataDxfId="9"/>
+    <tableColumn id="7" name="PWM" dataDxfId="8"/>
+    <tableColumn id="8" name="CAN" dataDxfId="7"/>
+    <tableColumn id="9" name="Audio" dataDxfId="6"/>
+    <tableColumn id="10" name="XBAR" dataDxfId="5"/>
+    <tableColumn id="11" name="FlexIO" dataDxfId="4"/>
+    <tableColumn id="12" name="Analog" dataDxfId="3"/>
+    <tableColumn id="13" name="SD/CSI/LCD" dataDxfId="2"/>
+    <tableColumn id="14" name="Column1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1278,24 +1430,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="81.5703125" customWidth="1"/>
     <col min="4" max="4" width="28.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -1303,417 +1462,429 @@
         <v>41</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="6"/>
+      <c r="D2" s="10">
         <v>1.3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="10"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6"/>
+      <c r="D3" s="10">
         <v>1.2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="10"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="E4" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="F4" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="25"/>
+      <c r="M4" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="M4" s="25"/>
       <c r="N4" s="25"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="25"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="25"/>
+      <c r="M5" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="25"/>
       <c r="N5" s="25"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="25"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25">
         <v>1.1599999999999999</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="E6" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="F6" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
-      <c r="K6" s="33">
+      <c r="K6" s="25"/>
+      <c r="L6" s="33">
         <v>0.125</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="M6" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="M6" s="25"/>
       <c r="N6" s="25"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>77</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25">
         <v>1.17</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="E7" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
-      <c r="K7" s="33">
+      <c r="K7" s="25"/>
+      <c r="L7" s="33">
         <v>0.12569444444444444</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="M7" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="M7" s="25"/>
       <c r="N7" s="25"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="25"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25">
         <v>1.18</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="E8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="25"/>
+      <c r="J8" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="33">
+      <c r="K8" s="25"/>
+      <c r="L8" s="33">
         <v>0.12638888888888888</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="M8" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="25"/>
       <c r="N8" s="25"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="25"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25">
         <v>1.22</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="33">
+      <c r="K9" s="25"/>
+      <c r="L9" s="33">
         <v>0.12916666666666668</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="M9" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="N9" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="25"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="25"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>157</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25">
         <v>1.23</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="F10" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="33">
+      <c r="K10" s="25"/>
+      <c r="L10" s="33">
         <v>0.12986111111111112</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="M10" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="M10" s="34" t="s">
+      <c r="N10" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="N10" s="25"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25">
         <v>1.24</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="I11" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33">
+      <c r="J11" s="25"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33">
         <v>0.13055555555555556</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="M11" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="N11" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="O11" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>89</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25">
         <v>1.25</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25" t="s">
+      <c r="E12" s="25"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="I12" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="J12" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="33">
+      <c r="K12" s="25"/>
+      <c r="L12" s="33">
         <v>0.13125000000000001</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="M12" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="M12" s="34" t="s">
+      <c r="N12" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="25"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="25"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>182</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="E13" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="32" t="s">
         <v>174</v>
       </c>
       <c r="G13" s="27" t="s">
@@ -1723,37 +1894,38 @@
         <v>174</v>
       </c>
       <c r="I13" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="K13" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="L13" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="M13" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="38"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="27"/>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>175</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="E14" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="32" t="s">
         <v>174</v>
       </c>
       <c r="G14" s="27" t="s">
@@ -1763,113 +1935,119 @@
         <v>174</v>
       </c>
       <c r="I14" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="K14" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="L14" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="M14" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="38"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="27"/>
+      <c r="O14" s="38"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25">
         <v>1.31</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="25" t="s">
+      <c r="E15" s="25"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="25"/>
+      <c r="J15" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="33">
+      <c r="K15" s="25"/>
+      <c r="L15" s="33">
         <v>0.13541666666666666</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="M15" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="35" t="s">
+      <c r="N15" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="N15" s="25"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="25"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6"/>
+      <c r="D16" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="6"/>
+      <c r="J16" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="K16" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="K16" s="12">
+      <c r="L16" s="12">
         <v>4.5833333333333337E-2</v>
       </c>
-      <c r="L16" s="10"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N16" s="10"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6"/>
+      <c r="D17" s="7">
         <v>2.1</v>
       </c>
-      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8">
+      <c r="K17" s="7"/>
+      <c r="L17" s="8">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>11</v>
       </c>
@@ -1878,8 +2056,8 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1888,311 +2066,324 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6"/>
+      <c r="D19" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="8">
+      <c r="K19" s="7"/>
+      <c r="L19" s="8">
         <v>8.5416666666666655E-2</v>
       </c>
-      <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>40</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6"/>
+      <c r="D20" s="8">
         <v>8.6111111111111124E-2</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="8">
+      <c r="K20" s="7"/>
+      <c r="L20" s="8">
         <v>8.6111111111111124E-2</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="7"/>
+      <c r="N20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="O20" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>41</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6"/>
+      <c r="D21" s="8">
         <v>8.6805555555555566E-2</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="8">
+      <c r="K21" s="7"/>
+      <c r="L21" s="8">
         <v>8.6805555555555566E-2</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="7"/>
+      <c r="N21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="O21" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>42</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6"/>
+      <c r="D22" s="8">
         <v>8.7500000000000008E-2</v>
       </c>
-      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="8">
+      <c r="K22" s="7"/>
+      <c r="L22" s="8">
         <v>8.7500000000000008E-2</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="7"/>
+      <c r="N22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="O22" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6"/>
+      <c r="D23" s="8">
         <v>8.819444444444445E-2</v>
       </c>
-      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="8">
+      <c r="K23" s="7"/>
+      <c r="L23" s="8">
         <v>8.819444444444445E-2</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="7"/>
+      <c r="N23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="O23" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>44</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6"/>
+      <c r="D24" s="8">
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="8">
+      <c r="K24" s="7"/>
+      <c r="L24" s="8">
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="7"/>
+      <c r="N24" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="O24" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6"/>
+      <c r="D25" s="8">
         <v>8.9583333333333334E-2</v>
       </c>
-      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="8">
+      <c r="K25" s="7"/>
+      <c r="L25" s="8">
         <v>8.9583333333333334E-2</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="7"/>
+      <c r="N25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="O25" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>6</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6"/>
+      <c r="D26" s="7">
         <v>2.1</v>
       </c>
-      <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="7"/>
+      <c r="J26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8">
+      <c r="K26" s="7"/>
+      <c r="L26" s="8">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>9</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6"/>
+      <c r="D27" s="7">
         <v>2.11</v>
       </c>
-      <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="7"/>
+      <c r="J27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="8">
+      <c r="K27" s="7"/>
+      <c r="L27" s="8">
         <v>9.0972222222222218E-2</v>
       </c>
-      <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6"/>
+      <c r="D28" s="7">
         <v>2.12</v>
       </c>
-      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="7"/>
+      <c r="J28" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K28" s="8">
+      <c r="L28" s="8">
         <v>9.1666666666666674E-2</v>
       </c>
-      <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="44" t="s">
+        <v>200</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -2204,13 +2395,16 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="44" t="s">
+        <v>199</v>
+      </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -2222,13 +2416,16 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="44" t="s">
+        <v>198</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -2240,144 +2437,151 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>8</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6"/>
+      <c r="D32" s="7">
         <v>2.16</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="7"/>
+      <c r="J32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6"/>
+      <c r="D33" s="7">
         <v>2.17</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="7"/>
+      <c r="J33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="K33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>170</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="26"/>
+      <c r="D34" s="19">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D34" s="19"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="19"/>
+      <c r="G34" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="H34" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="19"/>
+      <c r="J34" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="K34" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="L34" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="L34" s="26"/>
       <c r="M34" s="26"/>
-      <c r="N34" s="37"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N34" s="26"/>
+      <c r="O34" s="37"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>171</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="26"/>
+      <c r="D35" s="19">
         <v>2.19</v>
       </c>
-      <c r="D35" s="19"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="19"/>
+      <c r="G35" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="H35" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19" t="s">
+      <c r="I35" s="19"/>
+      <c r="J35" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="K35" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="K35" s="19" t="s">
+      <c r="L35" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="L35" s="26"/>
       <c r="M35" s="26"/>
-      <c r="N35" s="37"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="26"/>
+      <c r="O35" s="37"/>
+    </row>
+    <row r="36" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="26"/>
+      <c r="C36" s="40" t="s">
+        <v>197</v>
+      </c>
       <c r="D36" s="26"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
@@ -2385,17 +2589,20 @@
       <c r="K36" s="26"/>
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
-      <c r="N36" s="37"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N36" s="26"/>
+      <c r="O36" s="37"/>
+    </row>
+    <row r="37" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="26"/>
+      <c r="C37" s="40" t="s">
+        <v>196</v>
+      </c>
       <c r="D37" s="26"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="31"/>
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
@@ -2403,17 +2610,20 @@
       <c r="K37" s="26"/>
       <c r="L37" s="26"/>
       <c r="M37" s="26"/>
-      <c r="N37" s="37"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N37" s="26"/>
+      <c r="O37" s="37"/>
+    </row>
+    <row r="38" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="26"/>
+      <c r="C38" s="40" t="s">
+        <v>195</v>
+      </c>
       <c r="D38" s="26"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="31"/>
       <c r="G38" s="26"/>
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
@@ -2421,17 +2631,20 @@
       <c r="K38" s="26"/>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
-      <c r="N38" s="37"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N38" s="26"/>
+      <c r="O38" s="37"/>
+    </row>
+    <row r="39" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="26"/>
+      <c r="C39" s="42" t="s">
+        <v>194</v>
+      </c>
       <c r="D39" s="26"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="31"/>
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
@@ -2439,17 +2652,20 @@
       <c r="K39" s="26"/>
       <c r="L39" s="26"/>
       <c r="M39" s="26"/>
-      <c r="N39" s="37"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N39" s="26"/>
+      <c r="O39" s="37"/>
+    </row>
+    <row r="40" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="26"/>
+      <c r="C40" s="42" t="s">
+        <v>193</v>
+      </c>
       <c r="D40" s="26"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="31"/>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
@@ -2457,17 +2673,20 @@
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="26"/>
-      <c r="N40" s="37"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="26"/>
+      <c r="O40" s="37"/>
+    </row>
+    <row r="41" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="26"/>
+      <c r="C41" s="42" t="s">
+        <v>192</v>
+      </c>
       <c r="D41" s="26"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="31"/>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
@@ -2475,17 +2694,20 @@
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
-      <c r="N41" s="37"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="26"/>
+      <c r="O41" s="37"/>
+    </row>
+    <row r="42" spans="1:15" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="26"/>
+      <c r="C42" s="40" t="s">
+        <v>191</v>
+      </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="31"/>
       <c r="G42" s="26"/>
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
@@ -2493,17 +2715,20 @@
       <c r="K42" s="26"/>
       <c r="L42" s="26"/>
       <c r="M42" s="26"/>
-      <c r="N42" s="37"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N42" s="26"/>
+      <c r="O42" s="37"/>
+    </row>
+    <row r="43" spans="1:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="26"/>
+      <c r="C43" s="40" t="s">
+        <v>190</v>
+      </c>
       <c r="D43" s="26"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="31"/>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
@@ -2511,61 +2736,64 @@
       <c r="K43" s="26"/>
       <c r="L43" s="26"/>
       <c r="M43" s="26"/>
-      <c r="N43" s="37"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N43" s="26"/>
+      <c r="O43" s="37"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>172</v>
       </c>
       <c r="B44" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="26"/>
+      <c r="D44" s="19">
         <v>2.2799999999999998</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="E44" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
-      <c r="K44" s="19" t="s">
+      <c r="K44" s="19"/>
+      <c r="L44" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="L44" s="26"/>
       <c r="M44" s="26"/>
-      <c r="N44" s="37"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N44" s="26"/>
+      <c r="O44" s="37"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>173</v>
       </c>
       <c r="B45" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="28"/>
+      <c r="D45" s="20">
         <v>2.29</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="E45" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
-      <c r="K45" s="20" t="s">
+      <c r="K45" s="20"/>
+      <c r="L45" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="L45" s="28"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="39"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M45" s="28"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="39"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -2581,7 +2809,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
@@ -2597,7 +2825,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
